--- a/jpcore-r4/feature/改行テスト２/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/改行テスト２/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T13:01:38+00:00</t>
+    <t>2023-10-31T13:23:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/改行テスト２/StructureDefinition-jp-immunization-certificateddate.xlsx
+++ b/jpcore-r4/feature/改行テスト２/StructureDefinition-jp-immunization-certificateddate.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T13:23:43+00:00</t>
+    <t>2023-10-31T13:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
